--- a/чистый бланк/ЗАКАЗ КРЫМ 14,06,24ц-выезд 16,06.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 14,06,24ц-выезд 16,06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E4D9B3-DACC-420F-8C07-56D6DD85A0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CD5B57-E13D-44EE-B7F8-4B1B8A072A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$138</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="186">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -581,6 +581,15 @@
   </si>
   <si>
     <t>МОЛОЧНЫЕ ГОСТ сос ц/о мгс 1*4</t>
+  </si>
+  <si>
+    <t>ОХОТНИЧЬЯ Папа может с/к в/у 1/220 8шт.</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.НЕЖНАЯ Коровино п/о</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ сос ц/о мгс 0.41кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -1772,11 +1781,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1660"/>
+  <dimension ref="A1:M1662"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L135" sqref="L135"/>
+      <selection pane="bottomLeft" activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +1930,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="str">
-        <f>RIGHT(D11:D135,4)</f>
+        <f>RIGHT(D11:D137,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -1952,7 +1961,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="97" t="str">
-        <f>RIGHT(D12:D136,4)</f>
+        <f>RIGHT(D12:D138,4)</f>
         <v>5992</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -1976,7 +1985,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="97" t="str">
-        <f>RIGHT(D13:D137,4)</f>
+        <f>RIGHT(D13:D139,4)</f>
         <v>6268</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2000,7 +2009,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="97" t="str">
-        <f>RIGHT(D14:D138,4)</f>
+        <f>RIGHT(D14:D140,4)</f>
         <v>6247</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2024,7 +2033,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="str">
-        <f t="shared" ref="A15:A20" si="0">RIGHT(D15:D138,4)</f>
+        <f t="shared" ref="A15:A20" si="0">RIGHT(D15:D140,4)</f>
         <v>6325</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2174,7 +2183,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="97" t="str">
-        <f>RIGHT(D21:D142,4)</f>
+        <f>RIGHT(D21:D144,4)</f>
         <v>4063</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2204,7 +2213,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="97" t="str">
-        <f>RIGHT(D22:D143,4)</f>
+        <f>RIGHT(D22:D145,4)</f>
         <v>6333</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2234,7 +2243,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="97" t="str">
-        <f>RIGHT(D23:D144,4)</f>
+        <f>RIGHT(D23:D146,4)</f>
         <v>4574</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2264,7 +2273,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="97" t="str">
-        <f>RIGHT(D24:D145,4)</f>
+        <f>RIGHT(D24:D147,4)</f>
         <v>5336</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2294,7 +2303,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="str">
-        <f>RIGHT(D25:D146,4)</f>
+        <f>RIGHT(D25:D148,4)</f>
         <v>5997</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2318,7 +2327,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="97" t="str">
-        <f>RIGHT(D26:D148,4)</f>
+        <f>RIGHT(D26:D150,4)</f>
         <v>5337</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2348,7 +2357,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="97" t="str">
-        <f>RIGHT(D27:D149,4)</f>
+        <f>RIGHT(D27:D151,4)</f>
         <v>6734</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2372,7 +2381,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="97" t="str">
-        <f>RIGHT(D28:D150,4)</f>
+        <f>RIGHT(D28:D152,4)</f>
         <v>6747</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2402,7 +2411,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="97" t="str">
-        <f>RIGHT(D29:D151,4)</f>
+        <f>RIGHT(D29:D153,4)</f>
         <v>6597</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2426,7 +2435,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="97" t="str">
-        <f>RIGHT(D30:D152,4)</f>
+        <f>RIGHT(D30:D154,4)</f>
         <v>6769</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2450,7 +2459,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="97" t="str">
-        <f>RIGHT(D31:D152,4)</f>
+        <f>RIGHT(D31:D154,4)</f>
         <v>6797</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2474,7 +2483,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="97" t="str">
-        <f>RIGHT(D32:D153,4)</f>
+        <f>RIGHT(D32:D155,4)</f>
         <v>4813</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2504,7 +2513,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="97" t="str">
-        <f>RIGHT(D33:D154,4)</f>
+        <f>RIGHT(D33:D156,4)</f>
         <v>6392</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2534,7 +2543,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="97" t="str">
-        <f>RIGHT(D34:D156,4)</f>
+        <f>RIGHT(D34:D158,4)</f>
         <v>5851</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2564,7 +2573,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="97" t="str">
-        <f>RIGHT(D35:D157,4)</f>
+        <f>RIGHT(D35:D159,4)</f>
         <v>6158</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2592,7 +2601,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="97" t="str">
-        <f>RIGHT(D36:D159,4)</f>
+        <f>RIGHT(D36:D161,4)</f>
         <v>6716</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2620,7 +2629,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="97" t="str">
-        <f>RIGHT(D37:D157,4)</f>
+        <f>RIGHT(D37:D159,4)</f>
         <v>6353</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2650,7 +2659,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="97" t="str">
-        <f>RIGHT(D38:D158,4)</f>
+        <f>RIGHT(D38:D160,4)</f>
         <v/>
       </c>
       <c r="B38" s="75" t="s">
@@ -2667,7 +2676,7 @@
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="97" t="str">
-        <f>RIGHT(D39:D160,4)</f>
+        <f>RIGHT(D39:D162,4)</f>
         <v>6601</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -2692,7 +2701,7 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="97" t="str">
-        <f>RIGHT(D40:D161,4)</f>
+        <f>RIGHT(D40:D163,4)</f>
         <v>6602</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2717,7 +2726,7 @@
     </row>
     <row r="41" spans="1:11" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="97" t="str">
-        <f>RIGHT(D41:D160,4)</f>
+        <f>RIGHT(D41:D162,4)</f>
         <v>6517</v>
       </c>
       <c r="B41" s="84" t="s">
@@ -2742,7 +2751,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="97" t="str">
-        <f>RIGHT(D42:D161,4)</f>
+        <f>RIGHT(D42:D163,4)</f>
         <v>6438</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2767,7 +2776,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="97" t="str">
-        <f>RIGHT(D43:D162,4)</f>
+        <f>RIGHT(D43:D164,4)</f>
         <v>6822</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -2792,7 +2801,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="97" t="str">
-        <f>RIGHT(D44:D163,4)</f>
+        <f>RIGHT(D44:D165,4)</f>
         <v>6750</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -2817,7 +2826,7 @@
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="97" t="str">
-        <f>RIGHT(D45:D168,4)</f>
+        <f>RIGHT(D45:D170,4)</f>
         <v>6829</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -2841,7 +2850,7 @@
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="97" t="str">
-        <f>RIGHT(D46:D169,4)</f>
+        <f>RIGHT(D46:D171,4)</f>
         <v>6616</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -2865,7 +2874,7 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="97" t="str">
-        <f>RIGHT(D47:D173,4)</f>
+        <f>RIGHT(D47:D175,4)</f>
         <v>5982</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -2889,7 +2898,7 @@
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="97" t="str">
-        <f>RIGHT(D48:D174,4)</f>
+        <f>RIGHT(D48:D176,4)</f>
         <v>5976</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -2913,7 +2922,7 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="97" t="str">
-        <f>RIGHT(D49:D174,4)</f>
+        <f>RIGHT(D49:D176,4)</f>
         <v>5981</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -2937,7 +2946,7 @@
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="97" t="str">
-        <f>RIGHT(D50:D175,4)</f>
+        <f>RIGHT(D50:D177,4)</f>
         <v>6303</v>
       </c>
       <c r="B50" s="71" t="s">
@@ -2968,7 +2977,7 @@
     </row>
     <row r="51" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="97" t="str">
-        <f>RIGHT(D51:D176,4)</f>
+        <f>RIGHT(D51:D178,4)</f>
         <v>6777</v>
       </c>
       <c r="B51" s="71" t="s">
@@ -2993,7 +3002,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="97" t="str">
-        <f>RIGHT(D52:D176,4)</f>
+        <f>RIGHT(D52:D178,4)</f>
         <v>6726</v>
       </c>
       <c r="B52" s="46" t="s">
@@ -3021,45 +3030,46 @@
       </c>
       <c r="J52" s="40"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="97" t="str">
-        <f>RIGHT(D53:D177,4)</f>
-        <v>5820</v>
+        <f>RIGHT(D53:D179,4)</f>
+        <v>6762</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>23</v>
+        <v>185</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="D53" s="28">
-        <v>1001022465820</v>
+        <v>1001020846762</v>
       </c>
       <c r="E53" s="24"/>
-      <c r="F53" s="23"/>
+      <c r="F53" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G53" s="23">
-        <f>E53*1</f>
+        <f>E53*F53</f>
         <v>0</v>
       </c>
       <c r="H53" s="14"/>
-      <c r="I53" s="14">
-        <v>45</v>
-      </c>
+      <c r="I53" s="14"/>
       <c r="J53" s="40"/>
+      <c r="K53" s="83"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="97" t="str">
         <f>RIGHT(D54:D179,4)</f>
-        <v>6764</v>
+        <v>5820</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="28">
-        <v>1001020846764</v>
+        <v>1001022465820</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="23"/>
@@ -3068,128 +3078,130 @@
         <v>0</v>
       </c>
       <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
+      <c r="I54" s="14">
+        <v>45</v>
+      </c>
       <c r="J54" s="40"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="97" t="str">
-        <f>RIGHT(D55:D180,4)</f>
-        <v>6646</v>
+        <f>RIGHT(D55:D181,4)</f>
+        <v>6764</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D55" s="28">
-        <v>1001020886646</v>
+        <v>1001020846764</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="23"/>
       <c r="G55" s="23">
-        <f>E55*0.3</f>
+        <f>E55*1</f>
         <v>0</v>
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="40"/>
     </row>
-    <row r="56" spans="1:11" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="97" t="str">
-        <f>RIGHT(D56:D181,4)</f>
-        <v>6761</v>
+        <f>RIGHT(D56:D182,4)</f>
+        <v>6646</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>23</v>
+        <v>68</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="D56" s="28">
-        <v>1001020836761</v>
+        <v>1001020886646</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23">
-        <f>E56*1</f>
+        <f>E56*0.3</f>
         <v>0</v>
       </c>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="83"/>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="97" t="str">
-        <f>RIGHT(D57:D181,4)</f>
-        <v>6144</v>
+        <f>RIGHT(D57:D183,4)</f>
+        <v>6761</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>25</v>
+        <v>182</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D57" s="28">
-        <v>1001020966144</v>
+        <v>1001020836761</v>
       </c>
       <c r="E57" s="24"/>
-      <c r="F57" s="23">
-        <v>0.36</v>
-      </c>
+      <c r="F57" s="23"/>
       <c r="G57" s="23">
-        <f>E57*0.36</f>
+        <f>E57*1</f>
         <v>0</v>
       </c>
       <c r="H57" s="14"/>
-      <c r="I57" s="14">
-        <v>45</v>
-      </c>
+      <c r="I57" s="14"/>
       <c r="J57" s="40"/>
+      <c r="K57" s="83"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="97" t="str">
-        <f>RIGHT(D58:D182,4)</f>
-        <v>6767</v>
+        <f>RIGHT(D58:D183,4)</f>
+        <v>6144</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>23</v>
+        <v>69</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="D58" s="28">
-        <v>1001023696767</v>
+        <v>1001020966144</v>
       </c>
       <c r="E58" s="24"/>
-      <c r="F58" s="23"/>
+      <c r="F58" s="23">
+        <v>0.36</v>
+      </c>
       <c r="G58" s="23">
-        <f>E58*1</f>
+        <f>E58*0.36</f>
         <v>0</v>
       </c>
       <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
+      <c r="I58" s="14">
+        <v>45</v>
+      </c>
       <c r="J58" s="40"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="97" t="str">
-        <f>RIGHT(D59:D182,4)</f>
-        <v>6765</v>
+        <f>RIGHT(D59:D184,4)</f>
+        <v>6767</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D59" s="28">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="23"/>
       <c r="G59" s="23">
-        <f>E59*0.36</f>
+        <f>E59*1</f>
         <v>0</v>
       </c>
       <c r="H59" s="14"/>
@@ -3198,138 +3210,137 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="97" t="str">
-        <f t="shared" ref="A60:A67" si="1">RIGHT(D60:D182,4)</f>
-        <v>6722</v>
+        <f>RIGHT(D60:D184,4)</f>
+        <v>6765</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="28">
-        <v>1001022376722</v>
+        <v>1001023696765</v>
       </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="23">
-        <v>0.41</v>
-      </c>
+      <c r="F60" s="23"/>
       <c r="G60" s="23">
-        <f>E60*0.41</f>
+        <f>E60*0.36</f>
         <v>0</v>
       </c>
-      <c r="H60" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I60" s="14">
-        <v>45</v>
-      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
       <c r="J60" s="40"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="97" t="str">
+        <f t="shared" ref="A61:A68" si="1">RIGHT(D61:D184,4)</f>
+        <v>6722</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="28">
+        <v>1001022376722</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="G61" s="23">
+        <f>E61*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I61" s="14">
+        <v>45</v>
+      </c>
+      <c r="J61" s="40"/>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="97" t="str">
         <f t="shared" si="1"/>
         <v>3812</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B62" s="46" t="s">
         <v>73</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="28">
-        <v>1001022373812</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="23">
-        <v>2.125</v>
-      </c>
-      <c r="G61" s="23">
-        <f>E61*1</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="14">
-        <v>4.25</v>
-      </c>
-      <c r="I61" s="14">
-        <v>45</v>
-      </c>
-      <c r="J61" s="40"/>
-    </row>
-    <row r="62" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="97" t="str">
-        <f t="shared" si="1"/>
-        <v>6113</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>74</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="28">
-        <v>1001022376113</v>
+        <v>1001022373812</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="23">
-        <v>1.033333333333333</v>
+        <v>2.125</v>
       </c>
       <c r="G62" s="23">
         <f>E62*1</f>
         <v>0</v>
       </c>
       <c r="H62" s="14">
-        <v>6.2000000000000011</v>
+        <v>4.25</v>
       </c>
       <c r="I62" s="14">
         <v>45</v>
       </c>
       <c r="J62" s="40"/>
-      <c r="K62" s="83"/>
     </row>
     <row r="63" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="97" t="str">
         <f t="shared" si="1"/>
-        <v>6661</v>
+        <v>6113</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="28">
-        <v>1001022246661</v>
+        <v>1001022376113</v>
       </c>
       <c r="E63" s="24"/>
-      <c r="F63" s="23"/>
+      <c r="F63" s="23">
+        <v>1.033333333333333</v>
+      </c>
       <c r="G63" s="23">
         <f>E63*1</f>
         <v>0</v>
       </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
+      <c r="H63" s="14">
+        <v>6.2000000000000011</v>
+      </c>
+      <c r="I63" s="14">
+        <v>45</v>
+      </c>
       <c r="J63" s="40"/>
       <c r="K63" s="83"/>
     </row>
     <row r="64" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="97" t="str">
         <f t="shared" si="1"/>
-        <v>6713</v>
+        <v>6661</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D64" s="28">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23">
-        <f>E64*0.41</f>
+        <f>E64*1</f>
         <v>0</v>
       </c>
       <c r="H64" s="14"/>
@@ -3340,21 +3351,21 @@
     <row r="65" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="97" t="str">
         <f t="shared" si="1"/>
-        <v>6475</v>
+        <v>6713</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="28">
-        <v>1001025176475</v>
+        <v>1001022246713</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23">
-        <f>E65*0.4</f>
+        <f>E65*0.41</f>
         <v>0</v>
       </c>
       <c r="H65" s="14"/>
@@ -3365,21 +3376,21 @@
     <row r="66" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="97" t="str">
         <f t="shared" si="1"/>
-        <v>6776</v>
+        <v>6475</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="28">
-        <v>1001025166776</v>
+        <v>1001025176475</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23">
-        <f>E66*0.35</f>
+        <f>E66*0.4</f>
         <v>0</v>
       </c>
       <c r="H66" s="14"/>
@@ -3387,350 +3398,351 @@
       <c r="J66" s="40"/>
       <c r="K66" s="83"/>
     </row>
-    <row r="67" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="97" t="str">
         <f t="shared" si="1"/>
-        <v>6297</v>
-      </c>
-      <c r="B67" s="47" t="s">
-        <v>79</v>
+        <v>6776</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="28">
-        <v>1001022556297</v>
+        <v>1001025166776</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23">
-        <f>E67*0.27</f>
+        <f>E67*0.35</f>
         <v>0</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="83"/>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="97" t="str">
+        <f t="shared" si="1"/>
+        <v>6297</v>
+      </c>
+      <c r="B68" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="28">
+        <v>1001022556297</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23">
+        <f>E68*0.27</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="14">
         <v>3.24</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I68" s="14">
         <v>45</v>
       </c>
-      <c r="J67" s="40"/>
-    </row>
-    <row r="68" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="97" t="str">
-        <f>RIGHT(D68:D182,4)</f>
+      <c r="J68" s="40"/>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="97" t="str">
+        <f>RIGHT(D69:D184,4)</f>
         <v/>
       </c>
-      <c r="B68" s="75" t="s">
+      <c r="B69" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="76"/>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="97" t="str">
-        <f>RIGHT(D69:D183,4)</f>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="76"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="97" t="str">
+        <f>RIGHT(D70:D185,4)</f>
         <v>3297</v>
       </c>
-      <c r="B69" s="47" t="s">
+      <c r="B70" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C70" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="28">
+      <c r="D70" s="28">
         <v>1001034063297</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="23">
+      <c r="E70" s="24"/>
+      <c r="F70" s="23">
         <v>1.013333333333333</v>
       </c>
-      <c r="G69" s="23">
-        <f>E69*1</f>
+      <c r="G70" s="23">
+        <f>E70*1</f>
         <v>0</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H70" s="14">
         <v>3.04</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I70" s="14">
         <v>30</v>
       </c>
-      <c r="J69" s="40"/>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="97" t="str">
-        <f>RIGHT(D70:D186,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B70" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="28">
-        <v>1001031076528</v>
-      </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23">
-        <f>E70*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
       <c r="J70" s="40"/>
     </row>
-    <row r="71" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="97" t="str">
         <f>RIGHT(D71:D188,4)</f>
+        <v>6528</v>
+      </c>
+      <c r="B71" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="28">
+        <v>1001031076528</v>
+      </c>
+      <c r="E71" s="24"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23">
+        <f>E71*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="40"/>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="97" t="str">
+        <f>RIGHT(D72:D190,4)</f>
         <v>6527</v>
       </c>
-      <c r="B71" s="47" t="s">
+      <c r="B72" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C72" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="28">
+      <c r="D72" s="28">
         <v>1001031076527</v>
       </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="23">
+      <c r="E72" s="24"/>
+      <c r="F72" s="23">
         <v>1.0166666666666671</v>
       </c>
-      <c r="G71" s="23">
-        <f>E71*1</f>
+      <c r="G72" s="23">
+        <f>E72*1</f>
         <v>0</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H72" s="14">
         <v>3.05</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I72" s="14">
         <v>30</v>
       </c>
-      <c r="J71" s="40"/>
-    </row>
-    <row r="72" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="97" t="str">
-        <f>RIGHT(D72:D189,4)</f>
+      <c r="J72" s="40"/>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="97" t="str">
+        <f>RIGHT(D73:D191,4)</f>
         <v/>
       </c>
-      <c r="B72" s="75" t="s">
+      <c r="B73" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="75"/>
-      <c r="I72" s="75"/>
-      <c r="J72" s="76"/>
-    </row>
-    <row r="73" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="97" t="str">
-        <f>RIGHT(D73:D190,4)</f>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="76"/>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="97" t="str">
+        <f>RIGHT(D74:D192,4)</f>
         <v>6666</v>
       </c>
-      <c r="B73" s="27" t="s">
+      <c r="B74" s="27" t="s">
         <v>85</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="28">
-        <v>1001302276666</v>
-      </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G73" s="23">
-        <f>E73*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I73" s="14">
-        <v>45</v>
-      </c>
-      <c r="J73" s="40"/>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="97" t="str">
-        <f>RIGHT(D74:D191,4)</f>
-        <v>6785</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>86</v>
       </c>
       <c r="C74" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="28">
-        <v>1001300516785</v>
+        <v>1001302276666</v>
       </c>
       <c r="E74" s="24"/>
-      <c r="F74" s="23"/>
+      <c r="F74" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G74" s="23">
-        <f>E74*0.33</f>
+        <f>E74*0.28</f>
         <v>0</v>
       </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
+      <c r="H74" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I74" s="14">
+        <v>45</v>
+      </c>
       <c r="J74" s="40"/>
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="97" t="str">
-        <f>RIGHT(D75:D191,4)</f>
-        <v>6773</v>
+        <f>RIGHT(D75:D193,4)</f>
+        <v>6785</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="28">
+        <v>1001300516785</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23">
+        <f>E75*0.33</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="40"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="97" t="str">
+        <f>RIGHT(D76:D193,4)</f>
+        <v>6773</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="28">
         <v>1001303106773</v>
-      </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G75" s="23">
-        <f>E75*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I75" s="14">
-        <v>45</v>
-      </c>
-      <c r="J75" s="40"/>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="97" t="str">
-        <f>RIGHT(D76:D192,4)</f>
-        <v>4342</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" s="28">
-        <v>1001043094342</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="23">
-        <v>0.61875000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G76" s="23">
-        <f>E76*1</f>
+        <f>E76*0.28</f>
         <v>0</v>
       </c>
       <c r="H76" s="14">
-        <v>4.95</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="I76" s="14">
         <v>45</v>
       </c>
       <c r="J76" s="40"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="97" t="str">
         <f>RIGHT(D77:D194,4)</f>
+        <v>4342</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="28">
+        <v>1001043094342</v>
+      </c>
+      <c r="E77" s="24"/>
+      <c r="F77" s="23">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="G77" s="23">
+        <f>E77*1</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="14">
+        <v>4.95</v>
+      </c>
+      <c r="I77" s="14">
+        <v>45</v>
+      </c>
+      <c r="J77" s="40"/>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="97" t="str">
+        <f>RIGHT(D78:D196,4)</f>
         <v/>
       </c>
-      <c r="B77" s="75" t="s">
+      <c r="B78" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="75"/>
-      <c r="I77" s="75"/>
-      <c r="J77" s="76"/>
-    </row>
-    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="97" t="str">
-        <f>RIGHT(D78:D195,4)</f>
-        <v>6683</v>
-      </c>
-      <c r="B78" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="28">
-        <v>1001300386683</v>
-      </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G78" s="23">
-        <f>E78*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I78" s="14">
-        <v>45</v>
-      </c>
-      <c r="J78" s="40"/>
-    </row>
-    <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="76"/>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A79" s="97" t="str">
         <f>RIGHT(D79:D197,4)</f>
-        <v>6793</v>
+        <v>6683</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C79" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="28">
-        <v>1001303636793</v>
+        <v>1001300386683</v>
       </c>
       <c r="E79" s="24"/>
-      <c r="F79" s="23"/>
+      <c r="F79" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G79" s="23">
-        <f>E79*0.33</f>
+        <f>E79*0.35</f>
         <v>0</v>
       </c>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
+      <c r="H79" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I79" s="14">
+        <v>45</v>
+      </c>
       <c r="J79" s="40"/>
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="97" t="str">
-        <f>RIGHT(D80:D198,4)</f>
-        <v>6795</v>
+        <f>RIGHT(D80:D199,4)</f>
+        <v>6793</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="28">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="23"/>
@@ -3744,17 +3756,17 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="97" t="str">
-        <f>RIGHT(D81:D198,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D81:D200,4)</f>
+        <v>6795</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="28">
-        <v>1001300366807</v>
+        <v>1001302596795</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="23"/>
@@ -3768,76 +3780,76 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="97" t="str">
-        <f>RIGHT(D82:D198,4)</f>
-        <v>6684</v>
+        <f>RIGHT(D82:D200,4)</f>
+        <v>6807</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C82" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="28">
-        <v>1001304506684</v>
+        <v>1001300366807</v>
       </c>
       <c r="E82" s="24"/>
-      <c r="F82" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F82" s="23"/>
       <c r="G82" s="23">
-        <f>E82*0.28</f>
+        <f>E82*0.33</f>
         <v>0</v>
       </c>
-      <c r="H82" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I82" s="14">
-        <v>45</v>
-      </c>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
       <c r="J82" s="40"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="97" t="str">
-        <f>RIGHT(D83:D199,4)</f>
-        <v>6562</v>
+        <f>RIGHT(D83:D200,4)</f>
+        <v>6684</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C83" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="28">
-        <v>1001304506562</v>
+        <v>1001304506684</v>
       </c>
       <c r="E83" s="24"/>
-      <c r="F83" s="23"/>
+      <c r="F83" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G83" s="23">
         <f>E83*0.28</f>
         <v>0</v>
       </c>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
+      <c r="H83" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I83" s="14">
+        <v>45</v>
+      </c>
       <c r="J83" s="40"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="97" t="str">
-        <f>RIGHT(D84:D200,4)</f>
-        <v>6787</v>
+        <f>RIGHT(D84:D201,4)</f>
+        <v>6562</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C84" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="28">
-        <v>1001300456787</v>
+        <v>1001304506562</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="23"/>
       <c r="G84" s="23">
-        <f>E84*0.33</f>
+        <f>E84*0.28</f>
         <v>0</v>
       </c>
       <c r="H84" s="14"/>
@@ -3846,22 +3858,22 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="97" t="str">
-        <f>RIGHT(D85:D200,4)</f>
-        <v>6215</v>
+        <f>RIGHT(D85:D202,4)</f>
+        <v>6787</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C85" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="28">
-        <v>1001305196215</v>
+        <v>1001300456787</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23">
-        <f>E85*0.35</f>
+        <f>E85*0.33</f>
         <v>0</v>
       </c>
       <c r="H85" s="14"/>
@@ -3870,111 +3882,105 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="97" t="str">
-        <f>RIGHT(D86:D201,4)</f>
-        <v>6689</v>
-      </c>
-      <c r="B86" s="65" t="s">
-        <v>98</v>
+        <f>RIGHT(D86:D202,4)</f>
+        <v>6215</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="C86" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="28">
-        <v>1001303986689</v>
+        <v>1001305196215</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F86" s="23"/>
       <c r="G86" s="23">
         <f>E86*0.35</f>
         <v>0</v>
       </c>
-      <c r="H86" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I86" s="14">
-        <v>45</v>
-      </c>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
       <c r="J86" s="40"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="97" t="str">
-        <f>RIGHT(D87:D202,4)</f>
-        <v>6791</v>
+        <f>RIGHT(D87:D203,4)</f>
+        <v>6689</v>
       </c>
       <c r="B87" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="28">
-        <v>1001304096791</v>
+        <v>1001303986689</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="23"/>
+      <c r="F87" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G87" s="23">
-        <f>E87*0.33</f>
+        <f>E87*0.35</f>
         <v>0</v>
       </c>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
+      <c r="H87" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I87" s="14">
+        <v>45</v>
+      </c>
       <c r="J87" s="40"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="97" t="str">
-        <f>RIGHT(D88:D202,4)</f>
-        <v>6212</v>
+        <f>RIGHT(D88:D204,4)</f>
+        <v>6791</v>
       </c>
       <c r="B88" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>23</v>
+        <v>99</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="D88" s="28">
-        <v>1001301876212</v>
+        <v>1001304096791</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="23">
-        <v>0.68</v>
-      </c>
+      <c r="F88" s="23"/>
       <c r="G88" s="23">
-        <f>E88*1</f>
+        <f>E88*0.33</f>
         <v>0</v>
       </c>
       <c r="H88" s="14"/>
-      <c r="I88" s="14">
-        <v>45</v>
-      </c>
+      <c r="I88" s="14"/>
       <c r="J88" s="40"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="97" t="str">
-        <f>RIGHT(D89:D203,4)</f>
-        <v>5341</v>
+        <f>RIGHT(D89:D204,4)</f>
+        <v>6212</v>
       </c>
       <c r="B89" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D89" s="28">
-        <v>1001053985341</v>
+        <v>1001301876212</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="23">
-        <v>0.71250000000000002</v>
+        <v>0.68</v>
       </c>
       <c r="G89" s="23">
         <f>E89*1</f>
         <v>0</v>
       </c>
-      <c r="H89" s="14">
-        <v>5.7</v>
-      </c>
+      <c r="H89" s="14"/>
       <c r="I89" s="14">
         <v>45</v>
       </c>
@@ -3982,28 +3988,28 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="97" t="str">
-        <f>RIGHT(D90:D204,4)</f>
-        <v>6692</v>
+        <f>RIGHT(D90:D205,4)</f>
+        <v>5341</v>
       </c>
       <c r="B90" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>25</v>
+        <v>101</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D90" s="28">
-        <v>1001303056692</v>
+        <v>1001053985341</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="23">
-        <v>0.28000000000000003</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="G90" s="23">
-        <f>E90*0.28</f>
+        <f>E90*1</f>
         <v>0</v>
       </c>
       <c r="H90" s="14">
-        <v>2.2400000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="I90" s="14">
         <v>45</v>
@@ -4012,41 +4018,47 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="97" t="str">
-        <f>RIGHT(D91:D205,4)</f>
-        <v>6586</v>
+        <f>RIGHT(D91:D206,4)</f>
+        <v>6692</v>
       </c>
       <c r="B91" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="28">
-        <v>1001215576586</v>
+        <v>1001303056692</v>
       </c>
       <c r="E91" s="24"/>
-      <c r="F91" s="23"/>
+      <c r="F91" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G91" s="23">
-        <f>E91*0.09</f>
+        <f>E91*0.28</f>
         <v>0</v>
       </c>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
+      <c r="H91" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I91" s="14">
+        <v>45</v>
+      </c>
       <c r="J91" s="40"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="97" t="str">
-        <f>RIGHT(D92:D203,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D92:D207,4)</f>
+        <v>6586</v>
       </c>
       <c r="B92" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="23"/>
@@ -4060,243 +4072,237 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="97" t="str">
-        <f t="shared" ref="A93:A100" si="2">RIGHT(D93:D203,4)</f>
-        <v>5544</v>
-      </c>
-      <c r="B93" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>23</v>
+        <f>RIGHT(D93:D205,4)</f>
+        <v>6228</v>
+      </c>
+      <c r="B93" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="D93" s="28">
-        <v>1001051875544</v>
+        <v>1001225416228</v>
       </c>
       <c r="E93" s="24"/>
-      <c r="F93" s="23">
-        <v>0.85</v>
-      </c>
+      <c r="F93" s="23"/>
       <c r="G93" s="23">
-        <f>E93*1</f>
+        <f>E93*0.09</f>
         <v>0</v>
       </c>
-      <c r="H93" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I93" s="14">
-        <v>45</v>
-      </c>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
       <c r="J93" s="40"/>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="97" t="str">
+        <f t="shared" ref="A94:A101" si="2">RIGHT(D94:D205,4)</f>
+        <v>5544</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="28">
+        <v>1001051875544</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="G94" s="23">
+        <f>E94*1</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I94" s="14">
+        <v>45</v>
+      </c>
+      <c r="J94" s="40"/>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="97" t="str">
         <f t="shared" si="2"/>
         <v>6213</v>
       </c>
-      <c r="B94" s="27" t="s">
+      <c r="B95" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C94" s="34" t="s">
+      <c r="C95" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D94" s="28">
+      <c r="D95" s="28">
         <v>1001301876213</v>
       </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23">
-        <f>E94*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="40"/>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="97" t="str">
-        <f t="shared" si="2"/>
-        <v>6697</v>
-      </c>
-      <c r="B95" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="28">
-        <v>1001301876697</v>
-      </c>
       <c r="E95" s="24"/>
-      <c r="F95" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F95" s="23"/>
       <c r="G95" s="23">
         <f>E95*0.35</f>
         <v>0</v>
       </c>
-      <c r="H95" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I95" s="14">
-        <v>45</v>
-      </c>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
       <c r="J95" s="40"/>
     </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="97" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B96" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="C96" s="75"/>
-      <c r="D96" s="75"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="75"/>
-      <c r="H96" s="75"/>
-      <c r="I96" s="75"/>
-      <c r="J96" s="76"/>
-    </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>6697</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E96" s="24"/>
+      <c r="F96" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G96" s="23">
+        <f>E96*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I96" s="14">
+        <v>45</v>
+      </c>
+      <c r="J96" s="40"/>
+    </row>
+    <row r="97" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="97" t="str">
         <f t="shared" si="2"/>
-        <v>5706</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C97" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G97" s="23">
-        <f>E97*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H97" s="14">
-        <v>2</v>
-      </c>
-      <c r="I97" s="14">
-        <v>120</v>
-      </c>
-      <c r="J97" s="40"/>
-    </row>
-    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B97" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="76"/>
+    </row>
+    <row r="98" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A98" s="97" t="str">
         <f t="shared" si="2"/>
-        <v>6454</v>
+        <v>5706</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G98" s="23">
-        <f>E98*0.1</f>
+        <f>E98*0.25</f>
         <v>0</v>
       </c>
       <c r="H98" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I98" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J98" s="40"/>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="97" t="str">
         <f t="shared" si="2"/>
-        <v>6222</v>
+        <v>6454</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C99" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E99" s="24"/>
-      <c r="F99" s="23"/>
+      <c r="F99" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G99" s="23">
-        <f>E99*0.09</f>
+        <f>E99*0.1</f>
         <v>0</v>
       </c>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
+      <c r="H99" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I99" s="14">
+        <v>60</v>
+      </c>
       <c r="J99" s="40"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="97" t="str">
         <f t="shared" si="2"/>
-        <v>5931</v>
+        <v>6222</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C100" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E100" s="24"/>
-      <c r="F100" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F100" s="23"/>
       <c r="G100" s="23">
-        <f>E100*0.22</f>
+        <f>E100*0.09</f>
         <v>0</v>
       </c>
-      <c r="H100" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I100" s="14">
-        <v>120</v>
-      </c>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
       <c r="J100" s="40"/>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="97" t="str">
-        <f>RIGHT(D101:D212,4)</f>
-        <v>5708</v>
+        <f t="shared" si="2"/>
+        <v>5931</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C101" s="31" t="s">
-        <v>23</v>
+        <v>183</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="D101" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G101" s="23">
-        <f>E101*1</f>
+        <f>E101*0.22</f>
         <v>0</v>
       </c>
       <c r="H101" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I101" s="14">
         <v>120</v>
@@ -4305,267 +4311,273 @@
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="97" t="str">
-        <f>RIGHT(D102:D213,4)</f>
-        <v>6555</v>
+        <f>RIGHT(D102:D214,4)</f>
+        <v>5708</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" s="34" t="s">
-        <v>25</v>
+        <v>113</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D102" s="28">
-        <v>1001203146555</v>
+        <v>1001063145708</v>
       </c>
       <c r="E102" s="24"/>
-      <c r="F102" s="23"/>
+      <c r="F102" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G102" s="23">
-        <f>E102*0.1</f>
+        <f>E102*1</f>
         <v>0</v>
       </c>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
+      <c r="H102" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I102" s="14">
+        <v>120</v>
+      </c>
       <c r="J102" s="40"/>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="97" t="str">
-        <f>RIGHT(D103:D217,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D103:D215,4)</f>
+        <v>6555</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="28">
-        <v>1001060764993</v>
+        <v>1001203146555</v>
       </c>
       <c r="E103" s="24"/>
-      <c r="F103" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F103" s="23"/>
       <c r="G103" s="23">
-        <f>E103*0.25</f>
+        <f>E103*0.1</f>
         <v>0</v>
       </c>
-      <c r="H103" s="14">
-        <v>2</v>
-      </c>
-      <c r="I103" s="14">
-        <v>120</v>
-      </c>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
       <c r="J103" s="40"/>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="97" t="str">
-        <f>RIGHT(D104:D218,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D104:D219,4)</f>
+        <v>4993</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C104" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="28">
-        <v>1001193115682</v>
+        <v>1001060764993</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G104" s="23">
-        <f>E104*0.12</f>
+        <f>E104*0.25</f>
         <v>0</v>
       </c>
       <c r="H104" s="14">
-        <v>0.96</v>
+        <v>2</v>
       </c>
       <c r="I104" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J104" s="40"/>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="97" t="str">
-        <f t="shared" ref="A105:A112" si="3">RIGHT(D105:D221,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D105:D220,4)</f>
+        <v>5682</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>23</v>
+        <v>116</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="D105" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G105" s="23">
-        <f>E105*1</f>
+        <f>E105*0.12</f>
         <v>0</v>
       </c>
       <c r="H105" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I105" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J105" s="40"/>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="97" t="str">
+        <f t="shared" ref="A106:A113" si="3">RIGHT(D106:D223,4)</f>
+        <v>4117</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="28">
+        <v>1001062504117</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="23">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="G106" s="23">
+        <f>E106*1</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="I106" s="14">
+        <v>120</v>
+      </c>
+      <c r="J106" s="40"/>
+    </row>
+    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="97" t="str">
         <f t="shared" si="3"/>
         <v>5483</v>
       </c>
-      <c r="B106" s="27" t="s">
+      <c r="B107" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="C107" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D106" s="28">
+      <c r="D107" s="28">
         <v>1001062505483</v>
       </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="23">
+      <c r="E107" s="24"/>
+      <c r="F107" s="23">
         <v>0.25</v>
       </c>
-      <c r="G106" s="23">
-        <f>E106*0.25</f>
+      <c r="G107" s="23">
+        <f>E107*0.25</f>
         <v>0</v>
       </c>
-      <c r="H106" s="14">
+      <c r="H107" s="14">
         <v>2</v>
       </c>
-      <c r="I106" s="14">
+      <c r="I107" s="14">
         <v>120</v>
       </c>
-      <c r="J106" s="40"/>
-    </row>
-    <row r="107" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="97" t="str">
+      <c r="J107" s="40"/>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="97" t="str">
         <f t="shared" si="3"/>
         <v>6453</v>
       </c>
-      <c r="B107" s="27" t="s">
+      <c r="B108" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C107" s="34" t="s">
+      <c r="C108" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D107" s="28">
+      <c r="D108" s="28">
         <v>1001202506453</v>
       </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="23">
+      <c r="E108" s="24"/>
+      <c r="F108" s="23">
         <v>0.1</v>
       </c>
-      <c r="G107" s="23">
-        <f>E107*0.1</f>
+      <c r="G108" s="23">
+        <f>E108*0.1</f>
         <v>0</v>
       </c>
-      <c r="H107" s="14">
+      <c r="H108" s="14">
         <v>0.8</v>
       </c>
-      <c r="I107" s="14">
+      <c r="I108" s="14">
         <v>60</v>
       </c>
-      <c r="J107" s="40"/>
-    </row>
-    <row r="108" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="97" t="str">
+      <c r="J108" s="40"/>
+    </row>
+    <row r="109" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="97" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B108" s="75" t="s">
+      <c r="B109" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="C108" s="75"/>
-      <c r="D108" s="75"/>
-      <c r="E108" s="75"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="75"/>
-      <c r="H108" s="75"/>
-      <c r="I108" s="75"/>
-      <c r="J108" s="76"/>
-    </row>
-    <row r="109" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="97" t="str">
+      <c r="C109" s="75"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="75"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="75"/>
+      <c r="H109" s="75"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="76"/>
+    </row>
+    <row r="110" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="97" t="str">
         <f t="shared" si="3"/>
         <v>6756</v>
       </c>
-      <c r="B109" s="29" t="s">
+      <c r="B110" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C109" s="33" t="s">
+      <c r="C110" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D109" s="30">
+      <c r="D110" s="30">
         <v>1001092446756</v>
       </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="23">
+      <c r="E110" s="24"/>
+      <c r="F110" s="23">
         <v>1.5249999999999999</v>
       </c>
-      <c r="G109" s="23">
-        <f>E109*1</f>
+      <c r="G110" s="23">
+        <f>E110*1</f>
         <v>0</v>
       </c>
-      <c r="H109" s="14">
+      <c r="H110" s="14">
         <v>6.1</v>
       </c>
-      <c r="I109" s="14">
+      <c r="I110" s="14">
         <v>60</v>
       </c>
-      <c r="J109" s="40"/>
-    </row>
-    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="97" t="str">
-        <f t="shared" si="3"/>
-        <v>4611</v>
-      </c>
-      <c r="B110" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C110" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="81">
-        <v>1001092444611</v>
-      </c>
-      <c r="E110" s="24"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23">
-        <f>E110*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
       <c r="J110" s="40"/>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>6645</v>
+        <v>4611</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C111" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="81">
-        <v>1001093956645</v>
+        <v>1001092444611</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="23"/>
       <c r="G111" s="23">
-        <f>E111*0.8</f>
+        <f>E111*0.4</f>
         <v>0</v>
       </c>
       <c r="H111" s="14"/>
@@ -4575,21 +4587,21 @@
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>6470</v>
+        <v>6645</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C112" s="33" t="s">
-        <v>23</v>
+        <v>123</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>25</v>
       </c>
       <c r="D112" s="81">
-        <v>1001092436470</v>
+        <v>1001093956645</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="23"/>
       <c r="G112" s="23">
-        <f>E112*1</f>
+        <f>E112*0.8</f>
         <v>0</v>
       </c>
       <c r="H112" s="14"/>
@@ -4598,17 +4610,17 @@
     </row>
     <row r="113" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="97" t="str">
-        <f>RIGHT(D113:D228,4)</f>
-        <v>6025</v>
+        <f t="shared" si="3"/>
+        <v>6470</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C113" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D113" s="81">
-        <v>1001094966025</v>
+        <v>1001092436470</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="23"/>
@@ -4620,314 +4632,316 @@
       <c r="I113" s="14"/>
       <c r="J113" s="40"/>
     </row>
-    <row r="114" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="97" t="str">
-        <f>RIGHT(D114:D226,4)</f>
+        <f>RIGHT(D114:D230,4)</f>
+        <v>6025</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="81">
+        <v>1001094966025</v>
+      </c>
+      <c r="E114" s="24"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23">
+        <f>E114*1</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="40"/>
+    </row>
+    <row r="115" spans="1:11" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="97" t="str">
+        <f>RIGHT(D115:D231,4)</f>
+        <v>6865</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="81">
+        <v>1001095716865</v>
+      </c>
+      <c r="E115" s="24"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23">
+        <f>E115*1</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="40"/>
+      <c r="K115" s="83"/>
+    </row>
+    <row r="116" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="97" t="str">
+        <f>RIGHT(D116:D228,4)</f>
         <v>3215</v>
       </c>
-      <c r="B114" s="27" t="s">
+      <c r="B116" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C114" s="38" t="s">
+      <c r="C116" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="52">
+      <c r="D116" s="52">
         <v>1001094053215</v>
-      </c>
-      <c r="E114" s="24"/>
-      <c r="F114" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="G114" s="23">
-        <f>E114*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H114" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I114" s="14">
-        <v>60</v>
-      </c>
-      <c r="J114" s="40"/>
-    </row>
-    <row r="115" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="97" t="str">
-        <f>RIGHT(D115:D229,4)</f>
-        <v/>
-      </c>
-      <c r="B115" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="C115" s="75"/>
-      <c r="D115" s="75"/>
-      <c r="E115" s="75"/>
-      <c r="F115" s="74"/>
-      <c r="G115" s="75"/>
-      <c r="H115" s="75"/>
-      <c r="I115" s="75"/>
-      <c r="J115" s="76"/>
-    </row>
-    <row r="116" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="97" t="str">
-        <f>RIGHT(D116:D232,4)</f>
-        <v>6281</v>
-      </c>
-      <c r="B116" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D116" s="28">
-        <v>1001082576281</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G116" s="23">
-        <f>E116*0.3</f>
+        <f>E116*0.4</f>
         <v>0</v>
       </c>
       <c r="H116" s="14">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="I116" s="14">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J116" s="40"/>
     </row>
-    <row r="117" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="97" t="str">
-        <f>RIGHT(D117:D233,4)</f>
-        <v>6223</v>
-      </c>
-      <c r="B117" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="C117" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="28">
-        <v>1001225406223</v>
-      </c>
-      <c r="E117" s="24"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="23">
-        <f>E117*0.09</f>
-        <v>0</v>
-      </c>
-      <c r="H117" s="99"/>
-      <c r="I117" s="99"/>
-      <c r="J117" s="96"/>
-    </row>
-    <row r="118" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>RIGHT(D117:D231,4)</f>
+        <v/>
+      </c>
+      <c r="B117" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="75"/>
+      <c r="D117" s="75"/>
+      <c r="E117" s="75"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="75"/>
+      <c r="H117" s="75"/>
+      <c r="I117" s="75"/>
+      <c r="J117" s="76"/>
+    </row>
+    <row r="118" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A118" s="97" t="str">
-        <f>RIGHT(D118:D233,4)</f>
-        <v>6445</v>
+        <f>RIGHT(D118:D234,4)</f>
+        <v>6281</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C118" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="28">
+        <v>1001082576281</v>
+      </c>
+      <c r="E118" s="24"/>
+      <c r="F118" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G118" s="23">
+        <f>E118*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="I118" s="14">
+        <v>30</v>
+      </c>
+      <c r="J118" s="40"/>
+    </row>
+    <row r="119" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="97" t="str">
+        <f>RIGHT(D119:D235,4)</f>
+        <v>6223</v>
+      </c>
+      <c r="B119" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="28">
+        <v>1001225406223</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23">
+        <f>E119*0.09</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="99"/>
+      <c r="I119" s="99"/>
+      <c r="J119" s="96"/>
+    </row>
+    <row r="120" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="97" t="str">
+        <f>RIGHT(D120:D235,4)</f>
+        <v>6445</v>
+      </c>
+      <c r="B120" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="28">
         <v>1001233296445</v>
       </c>
-      <c r="E118" s="24"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23">
-        <f>E118*0.18</f>
+      <c r="E120" s="24"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23">
+        <f>E120*0.18</f>
         <v>0</v>
       </c>
-      <c r="H118" s="99"/>
-      <c r="I118" s="99"/>
-      <c r="J118" s="96"/>
-    </row>
-    <row r="119" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="97" t="str">
-        <f>RIGHT(D119:D234,4)</f>
+      <c r="H120" s="99"/>
+      <c r="I120" s="99"/>
+      <c r="J120" s="96"/>
+    </row>
+    <row r="121" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="97" t="str">
+        <f>RIGHT(D121:D236,4)</f>
         <v/>
       </c>
-      <c r="B119" s="75" t="s">
+      <c r="B121" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="C119" s="75"/>
-      <c r="D119" s="75"/>
-      <c r="E119" s="75"/>
-      <c r="F119" s="74"/>
-      <c r="G119" s="75"/>
-      <c r="H119" s="75"/>
-      <c r="I119" s="75"/>
-      <c r="J119" s="76"/>
-    </row>
-    <row r="120" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="97" t="str">
-        <f>RIGHT(D120:D237,4)</f>
-        <v/>
-      </c>
-      <c r="B120" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="C120" s="75"/>
-      <c r="D120" s="75"/>
-      <c r="E120" s="75"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="75"/>
-      <c r="H120" s="75"/>
-      <c r="I120" s="75"/>
-      <c r="J120" s="76"/>
-    </row>
-    <row r="121" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="97" t="str">
-        <f>RIGHT(D121:D238,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B121" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="C121" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E121" s="24"/>
-      <c r="F121" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G121" s="23">
-        <f>E121*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H121" s="14">
-        <v>8</v>
-      </c>
-      <c r="I121" s="73">
-        <v>120</v>
-      </c>
-      <c r="J121" s="40"/>
-    </row>
-    <row r="122" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="75"/>
+      <c r="D121" s="75"/>
+      <c r="E121" s="75"/>
+      <c r="F121" s="74"/>
+      <c r="G121" s="75"/>
+      <c r="H121" s="75"/>
+      <c r="I121" s="75"/>
+      <c r="J121" s="76"/>
+    </row>
+    <row r="122" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="97" t="str">
         <f>RIGHT(D122:D239,4)</f>
-        <v>6155</v>
-      </c>
-      <c r="B122" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C122" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D122" s="28">
-        <v>1002115036155</v>
-      </c>
-      <c r="E122" s="24"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23">
-        <f>E122*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H122" s="14"/>
-      <c r="I122" s="73"/>
-      <c r="J122" s="40"/>
-    </row>
-    <row r="123" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B122" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" s="75"/>
+      <c r="D122" s="75"/>
+      <c r="E122" s="75"/>
+      <c r="F122" s="74"/>
+      <c r="G122" s="75"/>
+      <c r="H122" s="75"/>
+      <c r="I122" s="75"/>
+      <c r="J122" s="76"/>
+    </row>
+    <row r="123" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A123" s="97" t="str">
         <f>RIGHT(D123:D240,4)</f>
-        <v>6157</v>
+        <v>6314</v>
       </c>
       <c r="B123" s="48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C123" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="28">
+        <v>1002112606314</v>
+      </c>
+      <c r="E123" s="24"/>
+      <c r="F123" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G123" s="23">
+        <f>E123*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H123" s="14">
+        <v>8</v>
+      </c>
+      <c r="I123" s="73">
+        <v>120</v>
+      </c>
+      <c r="J123" s="40"/>
+    </row>
+    <row r="124" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="97" t="str">
+        <f>RIGHT(D124:D241,4)</f>
+        <v>6155</v>
+      </c>
+      <c r="B124" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C124" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="28">
+        <v>1002115036155</v>
+      </c>
+      <c r="E124" s="24"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23">
+        <f>E124*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="14"/>
+      <c r="I124" s="73"/>
+      <c r="J124" s="40"/>
+    </row>
+    <row r="125" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="97" t="str">
+        <f>RIGHT(D125:D242,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B125" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="28">
         <v>1002115056157</v>
       </c>
-      <c r="E123" s="24"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23">
-        <f>E123*0.45</f>
+      <c r="E125" s="24"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23">
+        <f>E125*0.45</f>
         <v>0</v>
       </c>
-      <c r="H123" s="14"/>
-      <c r="I123" s="73"/>
-      <c r="J123" s="40"/>
-    </row>
-    <row r="124" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="97" t="str">
-        <f t="shared" ref="A124:A135" si="4">RIGHT(D124:D239,4)</f>
+      <c r="H125" s="14"/>
+      <c r="I125" s="73"/>
+      <c r="J125" s="40"/>
+    </row>
+    <row r="126" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="97" t="str">
+        <f t="shared" ref="A126:A137" si="4">RIGHT(D126:D241,4)</f>
         <v>6313</v>
       </c>
-      <c r="B124" s="48" t="s">
+      <c r="B126" s="48" t="s">
         <v>136</v>
-      </c>
-      <c r="C124" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D124" s="28">
-        <v>1002112606313</v>
-      </c>
-      <c r="E124" s="24"/>
-      <c r="F124" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="G124" s="23">
-        <f>E124*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="H124" s="14">
-        <v>9</v>
-      </c>
-      <c r="I124" s="73">
-        <v>120</v>
-      </c>
-      <c r="J124" s="40"/>
-    </row>
-    <row r="125" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="97" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B125" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="C125" s="75"/>
-      <c r="D125" s="75"/>
-      <c r="E125" s="75"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="75"/>
-      <c r="H125" s="75"/>
-      <c r="I125" s="75"/>
-      <c r="J125" s="76"/>
-    </row>
-    <row r="126" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="97" t="str">
-        <f t="shared" si="4"/>
-        <v>4945</v>
-      </c>
-      <c r="B126" s="48" t="s">
-        <v>138</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="28">
-        <v>1002151784945</v>
+        <v>1002112606313</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G126" s="23">
-        <f>E126*0.5</f>
+        <f>E126*0.9</f>
         <v>0</v>
       </c>
       <c r="H126" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I126" s="73">
         <v>120</v>
@@ -4940,7 +4954,7 @@
         <v/>
       </c>
       <c r="B127" s="75" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C127" s="75"/>
       <c r="D127" s="75"/>
@@ -4951,204 +4965,191 @@
       <c r="I127" s="75"/>
       <c r="J127" s="76"/>
     </row>
-    <row r="128" spans="1:11" s="91" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>4956</v>
-      </c>
-      <c r="B128" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="C128" s="93" t="s">
+        <v>4945</v>
+      </c>
+      <c r="B128" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D128" s="86">
-        <v>1002133974956</v>
-      </c>
-      <c r="E128" s="87"/>
-      <c r="F128" s="88">
-        <v>0.42</v>
-      </c>
-      <c r="G128" s="88">
-        <f>E128*0.42</f>
+      <c r="D128" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E128" s="24"/>
+      <c r="F128" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G128" s="23">
+        <f>E128*0.5</f>
         <v>0</v>
       </c>
-      <c r="H128" s="89">
-        <v>4.2</v>
-      </c>
-      <c r="I128" s="94">
+      <c r="H128" s="14">
+        <v>8</v>
+      </c>
+      <c r="I128" s="73">
         <v>120</v>
       </c>
-      <c r="J128" s="89"/>
-      <c r="K128" s="90"/>
-    </row>
-    <row r="129" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J128" s="40"/>
+    </row>
+    <row r="129" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>1762</v>
-      </c>
-      <c r="B129" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C129" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D129" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E129" s="24"/>
-      <c r="F129" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G129" s="23">
-        <f>E129*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H129" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I129" s="73">
-        <v>120</v>
-      </c>
-      <c r="J129" s="40"/>
-    </row>
-    <row r="130" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="B129" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C129" s="75"/>
+      <c r="D129" s="75"/>
+      <c r="E129" s="75"/>
+      <c r="F129" s="74"/>
+      <c r="G129" s="75"/>
+      <c r="H129" s="75"/>
+      <c r="I129" s="75"/>
+      <c r="J129" s="76"/>
+    </row>
+    <row r="130" spans="1:11" s="91" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>1764</v>
-      </c>
-      <c r="B130" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C130" s="37" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B130" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="C130" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="28">
-        <v>1002131181764</v>
-      </c>
-      <c r="E130" s="24"/>
-      <c r="F130" s="23">
+      <c r="D130" s="86">
+        <v>1002133974956</v>
+      </c>
+      <c r="E130" s="87"/>
+      <c r="F130" s="88">
         <v>0.42</v>
       </c>
-      <c r="G130" s="23">
+      <c r="G130" s="88">
         <f>E130*0.42</f>
         <v>0</v>
       </c>
-      <c r="H130" s="14">
+      <c r="H130" s="89">
         <v>4.2</v>
       </c>
-      <c r="I130" s="73">
+      <c r="I130" s="94">
         <v>120</v>
       </c>
-      <c r="J130" s="40"/>
-    </row>
-    <row r="131" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J130" s="89"/>
+      <c r="K130" s="90"/>
+    </row>
+    <row r="131" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A131" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B131" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="C131" s="75"/>
-      <c r="D131" s="75"/>
-      <c r="E131" s="75"/>
-      <c r="F131" s="74"/>
-      <c r="G131" s="75"/>
-      <c r="H131" s="75"/>
-      <c r="I131" s="75"/>
-      <c r="J131" s="76"/>
-    </row>
-    <row r="132" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1762</v>
+      </c>
+      <c r="B131" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="28">
+        <v>1002131151762</v>
+      </c>
+      <c r="E131" s="24"/>
+      <c r="F131" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G131" s="23">
+        <f>E131*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I131" s="73">
+        <v>120</v>
+      </c>
+      <c r="J131" s="40"/>
+    </row>
+    <row r="132" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B132" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="C132" s="75"/>
-      <c r="D132" s="75"/>
-      <c r="E132" s="75"/>
-      <c r="F132" s="74"/>
-      <c r="G132" s="75"/>
-      <c r="H132" s="75"/>
-      <c r="I132" s="75"/>
-      <c r="J132" s="76"/>
-    </row>
-    <row r="133" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1764</v>
+      </c>
+      <c r="B132" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C132" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E132" s="24"/>
+      <c r="F132" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G132" s="23">
+        <f>E132*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I132" s="73">
+        <v>120</v>
+      </c>
+      <c r="J132" s="40"/>
+    </row>
+    <row r="133" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>6004</v>
-      </c>
-      <c r="B133" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="C133" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D133" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="23">
-        <v>1</v>
-      </c>
-      <c r="G133" s="23">
-        <f>E133*1</f>
-        <v>0</v>
-      </c>
-      <c r="H133" s="14">
-        <v>8</v>
-      </c>
-      <c r="I133" s="73">
-        <v>120</v>
-      </c>
-      <c r="J133" s="40"/>
-    </row>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B133" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133" s="75"/>
+      <c r="D133" s="75"/>
+      <c r="E133" s="75"/>
+      <c r="F133" s="74"/>
+      <c r="G133" s="75"/>
+      <c r="H133" s="75"/>
+      <c r="I133" s="75"/>
+      <c r="J133" s="76"/>
+    </row>
+    <row r="134" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>5417</v>
-      </c>
-      <c r="B134" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C134" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D134" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="23">
-        <v>2</v>
-      </c>
-      <c r="G134" s="23">
-        <f>E134*1</f>
-        <v>0</v>
-      </c>
-      <c r="H134" s="14">
-        <v>6</v>
-      </c>
-      <c r="I134" s="73">
-        <v>90</v>
-      </c>
-      <c r="J134" s="40"/>
-    </row>
-    <row r="135" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="B134" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="C134" s="75"/>
+      <c r="D134" s="75"/>
+      <c r="E134" s="75"/>
+      <c r="F134" s="74"/>
+      <c r="G134" s="75"/>
+      <c r="H134" s="75"/>
+      <c r="I134" s="75"/>
+      <c r="J134" s="76"/>
+    </row>
+    <row r="135" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>6019</v>
+        <v>6004</v>
       </c>
       <c r="B135" s="48" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C135" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D135" s="70" t="s">
-        <v>150</v>
+      <c r="D135" s="69" t="s">
+        <v>146</v>
       </c>
       <c r="E135" s="24"/>
       <c r="F135" s="23">
@@ -5159,60 +5160,100 @@
         <v>0</v>
       </c>
       <c r="H135" s="14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I135" s="73">
         <v>120</v>
       </c>
       <c r="J135" s="40"/>
     </row>
-    <row r="136" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="78"/>
-      <c r="B136" s="78" t="s">
+    <row r="136" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="97" t="str">
+        <f t="shared" si="4"/>
+        <v>5417</v>
+      </c>
+      <c r="B136" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E136" s="24"/>
+      <c r="F136" s="23">
+        <v>2</v>
+      </c>
+      <c r="G136" s="23">
+        <f>E136*1</f>
+        <v>0</v>
+      </c>
+      <c r="H136" s="14">
+        <v>6</v>
+      </c>
+      <c r="I136" s="73">
+        <v>90</v>
+      </c>
+      <c r="J136" s="40"/>
+    </row>
+    <row r="137" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="97" t="str">
+        <f t="shared" si="4"/>
+        <v>6019</v>
+      </c>
+      <c r="B137" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C137" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="E137" s="24"/>
+      <c r="F137" s="23">
+        <v>1</v>
+      </c>
+      <c r="G137" s="23">
+        <f>E137*1</f>
+        <v>0</v>
+      </c>
+      <c r="H137" s="14">
+        <v>12</v>
+      </c>
+      <c r="I137" s="73">
+        <v>120</v>
+      </c>
+      <c r="J137" s="40"/>
+    </row>
+    <row r="138" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="78"/>
+      <c r="B138" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="C136" s="16"/>
-      <c r="D136" s="49"/>
-      <c r="E136" s="17">
-        <f>SUM(E5:E135)</f>
+      <c r="C138" s="16"/>
+      <c r="D138" s="49"/>
+      <c r="E138" s="17">
+        <f>SUM(E5:E137)</f>
         <v>0</v>
       </c>
-      <c r="F136" s="17">
-        <f>SUM(F10:F135)</f>
-        <v>39.107916666666675</v>
-      </c>
-      <c r="G136" s="17">
-        <f>SUM(G11:G135)</f>
+      <c r="F138" s="17">
+        <f>SUM(F10:F137)</f>
+        <v>39.517916666666672</v>
+      </c>
+      <c r="G138" s="17">
+        <f>SUM(G11:G137)</f>
         <v>0</v>
       </c>
-      <c r="H136" s="17">
-        <f>SUM(H10:H132)</f>
+      <c r="H138" s="17">
+        <f>SUM(H10:H134)</f>
         <v>175.22999999999993</v>
       </c>
-      <c r="I136" s="17"/>
-      <c r="J136" s="17"/>
-    </row>
-    <row r="137" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="54"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="53"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="20"/>
-      <c r="J137" s="21"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B138" s="54"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="53"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
-      <c r="J138" s="21"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+    </row>
+    <row r="139" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B139" s="54"/>
       <c r="C139" s="18"/>
       <c r="D139" s="53"/>
@@ -5222,7 +5263,7 @@
       <c r="I139" s="20"/>
       <c r="J139" s="21"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B140" s="54"/>
       <c r="C140" s="18"/>
       <c r="D140" s="53"/>
@@ -5232,7 +5273,7 @@
       <c r="I140" s="20"/>
       <c r="J140" s="21"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B141" s="54"/>
       <c r="C141" s="18"/>
       <c r="D141" s="53"/>
@@ -5242,7 +5283,7 @@
       <c r="I141" s="20"/>
       <c r="J141" s="21"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B142" s="54"/>
       <c r="C142" s="18"/>
       <c r="D142" s="53"/>
@@ -5252,7 +5293,7 @@
       <c r="I142" s="20"/>
       <c r="J142" s="21"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B143" s="54"/>
       <c r="C143" s="18"/>
       <c r="D143" s="53"/>
@@ -5262,7 +5303,7 @@
       <c r="I143" s="20"/>
       <c r="J143" s="21"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B144" s="54"/>
       <c r="C144" s="18"/>
       <c r="D144" s="53"/>
@@ -20432,17 +20473,37 @@
       <c r="I1660" s="20"/>
       <c r="J1660" s="21"/>
     </row>
+    <row r="1661" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1661" s="54"/>
+      <c r="C1661" s="18"/>
+      <c r="D1661" s="53"/>
+      <c r="F1661" s="19"/>
+      <c r="G1661" s="19"/>
+      <c r="H1661" s="20"/>
+      <c r="I1661" s="20"/>
+      <c r="J1661" s="21"/>
+    </row>
+    <row r="1662" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1662" s="54"/>
+      <c r="C1662" s="18"/>
+      <c r="D1662" s="53"/>
+      <c r="F1662" s="19"/>
+      <c r="G1662" s="19"/>
+      <c r="H1662" s="20"/>
+      <c r="I1662" s="20"/>
+      <c r="J1662" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J138" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B129" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B131" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D133:D135" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D135:D137" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
